--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC6_SearchResults_Typeahead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\Logixal_QA_Sanity\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C01832-5E52-479D-ACFE-29BF7264131B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C006727C-2DB1-49AF-B75B-FBD2F8E8FBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>PRESS_ENTER</t>
   </si>
   <si>
-    <t>ValidSearchHeader</t>
-  </si>
-  <si>
     <t>validSearchV</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>TC6_SearchResults_Typeahead</t>
   </si>
   <si>
-    <t>Showing Results for "sprocket"</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -123,6 +117,12 @@
   </si>
   <si>
     <t>JSElement</t>
+  </si>
+  <si>
+    <t>ValidSearchHeader1</t>
+  </si>
+  <si>
+    <t>Showing Results for "sprocket"</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -586,22 +586,22 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -610,22 +610,22 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -634,7 +634,7 @@
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -643,13 +643,13 @@
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
@@ -671,7 +671,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -701,23 +701,23 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +732,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -775,7 +775,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -783,15 +783,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
@@ -799,37 +799,33 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://ectest.kamandirect.com/storeus/search?term=sprocket" xr:uid="{7B47C256-A4E7-420D-AC32-1971BB4CEB71}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://192.168.15.18/storeus" xr:uid="{A1AB4DF9-5421-4A66-8BFF-76337F5BC948}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://192.168.15.18/storeus" xr:uid="{A1AB4DF9-5421-4A66-8BFF-76337F5BC948}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,15 +1026,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1063,10 +1063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>